--- a/Baseline 2/Documento de Planejamento e Acompanhamento/Modelo Formulario Requisito.xlsx
+++ b/Baseline 2/Documento de Planejamento e Acompanhamento/Modelo Formulario Requisito.xlsx
@@ -283,17 +283,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,16 +596,16 @@
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="10"/>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -632,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="14">
-        <v>42510</v>
+        <v>42485</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>3</v>
@@ -662,16 +662,16 @@
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -714,16 +714,16 @@
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -821,19 +821,19 @@
       <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -851,16 +851,16 @@
     <row r="23" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B24" s="10"/>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
@@ -887,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="14">
-        <v>42510</v>
+        <v>42485</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>3</v>
@@ -917,54 +917,54 @@
     </row>
     <row r="28" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" s="3"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" s="3"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -981,42 +981,42 @@
     </row>
     <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="3"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1088,19 +1088,19 @@
       <c r="C41" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1118,16 +1118,16 @@
     <row r="44" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="2:11" ht="21" x14ac:dyDescent="0.4">
       <c r="B45" s="10"/>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="F47" s="14">
-        <v>42510</v>
+        <v>42485</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>3</v>
@@ -1184,16 +1184,16 @@
     </row>
     <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="3"/>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
@@ -1236,16 +1236,16 @@
     </row>
     <row r="53" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="3"/>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
@@ -1343,19 +1343,19 @@
       <c r="C61" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="17" t="s">
+      <c r="H61" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1372,6 +1372,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C50:J51"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="C58:J59"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="C45:J45"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J31"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:J35"/>
     <mergeCell ref="C16:J17"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="H19:J19"/>
@@ -1380,22 +1396,6 @@
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C12:J13"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J31"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J51"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="C58:J59"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
